--- a/main.xlsx
+++ b/main.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vkr_project-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\Desktop\vkr_project-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B44591-F759-4DA7-9A9C-0E97A80817BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFEEA9D-BEA8-4B31-BEBB-4D03511D31E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>БазаПрактики</t>
   </si>
@@ -154,19 +154,83 @@
   </si>
   <si>
     <t>Очной</t>
+  </si>
+  <si>
+    <t>направлениеПодготовки</t>
+  </si>
+  <si>
+    <t>СведенияОФормеОбучения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сведения о форме обучения текст текст текст текст </t>
+  </si>
+  <si>
+    <t>Проектирование, разработка и сопровождение информационных систем</t>
+  </si>
+  <si>
+    <t>СведенияОПрохЧастиОбрПрог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сведения о прохождении части образовательной программы текст текст текст текст текст </t>
+  </si>
+  <si>
+    <t>СведОПрохУскорОбуч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сведения о прохождении ускоренного обучения по индивидуальному плану текст текст текст текст </t>
+  </si>
+  <si>
+    <t>ПрофильОбучения</t>
+  </si>
+  <si>
+    <t>СтепеньНаучРук</t>
+  </si>
+  <si>
+    <t>Доцент</t>
+  </si>
+  <si>
+    <t>ЗваниеНаучРук</t>
+  </si>
+  <si>
+    <t>ИницРукВКР</t>
+  </si>
+  <si>
+    <t>Иванов И. И.</t>
+  </si>
+  <si>
+    <t>СрокСдачиВКР</t>
+  </si>
+  <si>
+    <t>10.10.2025</t>
+  </si>
+  <si>
+    <t>ФИОДП</t>
+  </si>
+  <si>
+    <t>Инзелю Виталию Сергеевичу</t>
+  </si>
+  <si>
+    <t>Кафедры техника и технологии</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -202,6 +266,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -484,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,9 +572,11 @@
     <col min="16" max="16" width="46.5703125" customWidth="1"/>
     <col min="17" max="17" width="23.140625" customWidth="1"/>
     <col min="18" max="18" width="29" customWidth="1"/>
+    <col min="32" max="32" width="12.28515625" customWidth="1"/>
+    <col min="33" max="33" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,8 +649,38 @@
       <c r="X1" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="Y1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="252" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -653,9 +752,40 @@
       </c>
       <c r="X2" t="s">
         <v>42</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/main.xlsx
+++ b/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\Desktop\vkr_project-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFEEA9D-BEA8-4B31-BEBB-4D03511D31E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69662C1-A13B-4775-AC76-2B5377AC0CC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>БазаПрактики</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Кафедра</t>
   </si>
   <si>
-    <t>Информационные системы и технологии</t>
-  </si>
-  <si>
     <t>ФИО</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Инзель В.С</t>
   </si>
   <si>
-    <t>Иванов И.И</t>
-  </si>
-  <si>
     <t>РукВУЗ</t>
   </si>
   <si>
@@ -211,13 +205,76 @@
   </si>
   <si>
     <t>Кафедры техника и технологии</t>
+  </si>
+  <si>
+    <t>ЗаведующийКафедрой</t>
+  </si>
+  <si>
+    <t>Петров П.П</t>
+  </si>
+  <si>
+    <t>ФИОНаучРук</t>
+  </si>
+  <si>
+    <t>Информационные системы</t>
+  </si>
+  <si>
+    <t>КафедраРП</t>
+  </si>
+  <si>
+    <t>информационных систем и технологий</t>
+  </si>
+  <si>
+    <t>ДолжНаучРук</t>
+  </si>
+  <si>
+    <t>Иванов Иван Иванович</t>
+  </si>
+  <si>
+    <t>Доктор Наук</t>
+  </si>
+  <si>
+    <t>09.03.04 Проектирование, разработка и сопровождение информационных систем</t>
+  </si>
+  <si>
+    <t>СегодняшняяДата</t>
+  </si>
+  <si>
+    <t>14.10.2025</t>
+  </si>
+  <si>
+    <t>телефон</t>
+  </si>
+  <si>
+    <t>emailстуд</t>
+  </si>
+  <si>
+    <t>example@mail.ru</t>
+  </si>
+  <si>
+    <t>Сидоров Ф. Ф</t>
+  </si>
+  <si>
+    <t>ФИОРукПрофОрг</t>
+  </si>
+  <si>
+    <t>Сидоров Фёдор Фёдорович</t>
+  </si>
+  <si>
+    <t>79999999999</t>
+  </si>
+  <si>
+    <t>ОбъектРаботы</t>
+  </si>
+  <si>
+    <t>Выпускную Квалификационную работу</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +288,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -250,10 +315,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -271,8 +337,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,14 +639,20 @@
     <col min="11" max="11" width="21.42578125" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
     <col min="16" max="16" width="46.5703125" customWidth="1"/>
     <col min="17" max="17" width="23.140625" customWidth="1"/>
     <col min="18" max="18" width="29" customWidth="1"/>
     <col min="32" max="32" width="12.28515625" customWidth="1"/>
     <col min="33" max="33" width="14.85546875" customWidth="1"/>
+    <col min="37" max="37" width="11.85546875" customWidth="1"/>
+    <col min="38" max="38" width="14" customWidth="1"/>
+    <col min="39" max="39" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -596,91 +672,118 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
       <c r="R1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="U1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="W1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="Z1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="AD1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AE1" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="AF1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG1" t="s">
         <v>55</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>57</v>
       </c>
-      <c r="AH1" t="s">
-        <v>59</v>
+      <c r="AI1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="252" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" ht="252" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -697,95 +800,125 @@
         <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="P2" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
         <v>32</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
       </c>
       <c r="T2">
         <v>123</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="V2">
         <v>16</v>
       </c>
       <c r="W2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" t="s">
         <v>40</v>
       </c>
-      <c r="X2" t="s">
-        <v>42</v>
-      </c>
       <c r="Y2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="AC2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AE2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>60</v>
+      <c r="AJ2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AO2" r:id="rId1" xr:uid="{5874DB67-7A08-4B05-982A-D2CA6CD99D28}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/main.xlsx
+++ b/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artem\Desktop\vkr_project-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69662C1-A13B-4775-AC76-2B5377AC0CC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D3E03B-C148-4615-B718-CA410A316D91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>БазаПрактики</t>
   </si>
@@ -268,6 +268,51 @@
   </si>
   <si>
     <t>Выпускную Квалификационную работу</t>
+  </si>
+  <si>
+    <t>ФамилияСтудента</t>
+  </si>
+  <si>
+    <t>Инзель</t>
+  </si>
+  <si>
+    <t>ИмяСтудента</t>
+  </si>
+  <si>
+    <t>Виталий</t>
+  </si>
+  <si>
+    <t>ОтчествоСтудента</t>
+  </si>
+  <si>
+    <t>Сергеевич</t>
+  </si>
+  <si>
+    <t>ВидПрактикаВРП</t>
+  </si>
+  <si>
+    <t>преддиплоной</t>
+  </si>
+  <si>
+    <t>с 06.06.2025 по 10.06.2025</t>
+  </si>
+  <si>
+    <t>с 11.06.2025 по 20.06.2025</t>
+  </si>
+  <si>
+    <t>с 21.06.2025 по 30.06.2025</t>
+  </si>
+  <si>
+    <t>Срок11</t>
+  </si>
+  <si>
+    <t>Срок12</t>
+  </si>
+  <si>
+    <t>Срок13</t>
+  </si>
+  <si>
+    <t>год</t>
   </si>
 </sst>
 </file>
@@ -621,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="BA2" sqref="BA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,9 +695,11 @@
     <col min="39" max="39" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="12" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="18.5703125" customWidth="1"/>
+    <col min="46" max="46" width="11.85546875" customWidth="1"/>
+    <col min="47" max="47" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -782,8 +829,32 @@
       <c r="AQ1" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="AR1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" ht="252" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" ht="252" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -912,6 +983,30 @@
       </c>
       <c r="AQ2" s="3" t="s">
         <v>80</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AY2">
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
